--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.15549480722105</v>
+        <v>1.297291666666667</v>
       </c>
       <c r="N2">
-        <v>1.15549480722105</v>
+        <v>3.891875</v>
       </c>
       <c r="O2">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="P2">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="Q2">
-        <v>18.9643442334203</v>
+        <v>25.88847055527778</v>
       </c>
       <c r="R2">
-        <v>18.9643442334203</v>
+        <v>232.9962349975</v>
       </c>
       <c r="S2">
-        <v>0.002136825400466817</v>
+        <v>0.002654647585553448</v>
       </c>
       <c r="T2">
-        <v>0.002136825400466817</v>
+        <v>0.002654647585553449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.42991176776849</v>
+        <v>2.532647</v>
       </c>
       <c r="N3">
-        <v>2.42991176776849</v>
+        <v>7.597941</v>
       </c>
       <c r="O3">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="P3">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="Q3">
-        <v>39.88047625382785</v>
+        <v>50.54095310338533</v>
       </c>
       <c r="R3">
-        <v>39.88047625382785</v>
+        <v>454.8685779304679</v>
       </c>
       <c r="S3">
-        <v>0.004493570333516549</v>
+        <v>0.00518255486900981</v>
       </c>
       <c r="T3">
-        <v>0.004493570333516549</v>
+        <v>0.00518255486900981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.456973396349192</v>
+        <v>0.5649363333333334</v>
       </c>
       <c r="N4">
-        <v>0.456973396349192</v>
+        <v>1.694809</v>
       </c>
       <c r="O4">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="P4">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="Q4">
-        <v>7.499991120447686</v>
+        <v>11.27374668850356</v>
       </c>
       <c r="R4">
-        <v>7.499991120447686</v>
+        <v>101.463720196532</v>
       </c>
       <c r="S4">
-        <v>0.0008450685840855892</v>
+        <v>0.001156029065636552</v>
       </c>
       <c r="T4">
-        <v>0.0008450685840855892</v>
+        <v>0.001156029065636552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.23092719266715</v>
+        <v>1.341011</v>
       </c>
       <c r="N5">
-        <v>1.23092719266715</v>
+        <v>4.023033</v>
       </c>
       <c r="O5">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="P5">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="Q5">
-        <v>20.20236427038461</v>
+        <v>26.76092406960933</v>
       </c>
       <c r="R5">
-        <v>20.20236427038461</v>
+        <v>240.848316626484</v>
       </c>
       <c r="S5">
-        <v>0.002276320477581598</v>
+        <v>0.002744110445492686</v>
       </c>
       <c r="T5">
-        <v>0.002276320477581598</v>
+        <v>0.002744110445492686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.15549480722105</v>
+        <v>1.297291666666667</v>
       </c>
       <c r="N6">
-        <v>1.15549480722105</v>
+        <v>3.891875</v>
       </c>
       <c r="O6">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="P6">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="Q6">
-        <v>1881.160732222015</v>
+        <v>2124.111874778472</v>
       </c>
       <c r="R6">
-        <v>1881.160732222015</v>
+        <v>19117.00687300625</v>
       </c>
       <c r="S6">
-        <v>0.2119615624720068</v>
+        <v>0.2178100265825293</v>
       </c>
       <c r="T6">
-        <v>0.2119615624720068</v>
+        <v>0.2178100265825293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.42991176776849</v>
+        <v>2.532647</v>
       </c>
       <c r="N7">
-        <v>2.42991176776849</v>
+        <v>7.597941</v>
       </c>
       <c r="O7">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="P7">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="Q7">
-        <v>3955.928292991287</v>
+        <v>4146.812706463136</v>
       </c>
       <c r="R7">
-        <v>3955.928292991287</v>
+        <v>37321.31435816823</v>
       </c>
       <c r="S7">
-        <v>0.4457379572341038</v>
+        <v>0.4252211931735961</v>
       </c>
       <c r="T7">
-        <v>0.4457379572341038</v>
+        <v>0.4252211931735961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.456973396349192</v>
+        <v>0.5649363333333334</v>
       </c>
       <c r="N8">
-        <v>0.456973396349192</v>
+        <v>1.694809</v>
       </c>
       <c r="O8">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="P8">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="Q8">
-        <v>743.958695019713</v>
+        <v>924.9947447904744</v>
       </c>
       <c r="R8">
-        <v>743.958695019713</v>
+        <v>8324.95270311427</v>
       </c>
       <c r="S8">
-        <v>0.08382624871440431</v>
+        <v>0.09485052663364316</v>
       </c>
       <c r="T8">
-        <v>0.08382624871440431</v>
+        <v>0.09485052663364317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.23092719266715</v>
+        <v>1.341011</v>
       </c>
       <c r="N9">
-        <v>1.23092719266715</v>
+        <v>4.023033</v>
       </c>
       <c r="O9">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="P9">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="Q9">
-        <v>2003.965647096802</v>
+        <v>2195.695434186776</v>
       </c>
       <c r="R9">
-        <v>2003.965647096802</v>
+        <v>19761.25890768099</v>
       </c>
       <c r="S9">
-        <v>0.225798722258643</v>
+        <v>0.2251503259155015</v>
       </c>
       <c r="T9">
-        <v>0.225798722258643</v>
+        <v>0.2251503259155016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.15549480722105</v>
+        <v>1.297291666666667</v>
       </c>
       <c r="N10">
-        <v>1.15549480722105</v>
+        <v>3.891875</v>
       </c>
       <c r="O10">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="P10">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="Q10">
-        <v>15.33353867532462</v>
+        <v>22.70366708097222</v>
       </c>
       <c r="R10">
-        <v>15.33353867532462</v>
+        <v>204.33300372875</v>
       </c>
       <c r="S10">
-        <v>0.001727720954502239</v>
+        <v>0.002328072447193106</v>
       </c>
       <c r="T10">
-        <v>0.001727720954502239</v>
+        <v>0.002328072447193107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.42991176776849</v>
+        <v>2.532647</v>
       </c>
       <c r="N11">
-        <v>2.42991176776849</v>
+        <v>7.597941</v>
       </c>
       <c r="O11">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="P11">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="Q11">
-        <v>32.2451869414388</v>
+        <v>44.32339758210867</v>
       </c>
       <c r="R11">
-        <v>32.2451869414388</v>
+        <v>398.910578238978</v>
       </c>
       <c r="S11">
-        <v>0.003633256897849535</v>
+        <v>0.004544996202986694</v>
       </c>
       <c r="T11">
-        <v>0.003633256897849535</v>
+        <v>0.004544996202986695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.456973396349192</v>
+        <v>0.5649363333333334</v>
       </c>
       <c r="N12">
-        <v>0.456973396349192</v>
+        <v>1.694809</v>
       </c>
       <c r="O12">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="P12">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="Q12">
-        <v>6.064085448697576</v>
+        <v>9.886848704502446</v>
       </c>
       <c r="R12">
-        <v>6.064085448697576</v>
+        <v>88.98163834052201</v>
       </c>
       <c r="S12">
-        <v>0.0006832765561459748</v>
+        <v>0.001013814199108374</v>
       </c>
       <c r="T12">
-        <v>0.0006832765561459748</v>
+        <v>0.001013814199108374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.23092719266715</v>
+        <v>1.341011</v>
       </c>
       <c r="N13">
-        <v>1.23092719266715</v>
+        <v>4.023033</v>
       </c>
       <c r="O13">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="P13">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="Q13">
-        <v>16.33453443262403</v>
+        <v>23.46879123501267</v>
       </c>
       <c r="R13">
-        <v>16.33453443262403</v>
+        <v>211.219121115114</v>
       </c>
       <c r="S13">
-        <v>0.00184050909700956</v>
+        <v>0.002406529572879043</v>
       </c>
       <c r="T13">
-        <v>0.00184050909700956</v>
+        <v>0.002406529572879044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.15549480722105</v>
+        <v>1.297291666666667</v>
       </c>
       <c r="N14">
-        <v>1.15549480722105</v>
+        <v>3.891875</v>
       </c>
       <c r="O14">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="P14">
-        <v>0.2191214680434574</v>
+        <v>0.2261711035865543</v>
       </c>
       <c r="Q14">
-        <v>29.24634204576416</v>
+        <v>32.94617916597222</v>
       </c>
       <c r="R14">
-        <v>29.24634204576416</v>
+        <v>296.5156124937499</v>
       </c>
       <c r="S14">
-        <v>0.003295359216481508</v>
+        <v>0.003378356971278446</v>
       </c>
       <c r="T14">
-        <v>0.003295359216481508</v>
+        <v>0.003378356971278447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.42991176776849</v>
+        <v>2.532647</v>
       </c>
       <c r="N15">
-        <v>2.42991176776849</v>
+        <v>7.597941</v>
       </c>
       <c r="O15">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="P15">
-        <v>0.4607946573555182</v>
+        <v>0.4415441659754047</v>
       </c>
       <c r="Q15">
-        <v>61.50268288275356</v>
+        <v>64.31941557179665</v>
       </c>
       <c r="R15">
-        <v>61.50268288275356</v>
+        <v>578.8747401461699</v>
       </c>
       <c r="S15">
-        <v>0.006929872890048322</v>
+        <v>0.006595421729812066</v>
       </c>
       <c r="T15">
-        <v>0.006929872890048322</v>
+        <v>0.006595421729812066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.456973396349192</v>
+        <v>0.5649363333333334</v>
       </c>
       <c r="N16">
-        <v>0.456973396349192</v>
+        <v>1.694809</v>
       </c>
       <c r="O16">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="P16">
-        <v>0.08665783769782356</v>
+        <v>0.09849155532960965</v>
       </c>
       <c r="Q16">
-        <v>11.56630057696684</v>
+        <v>14.34719279681445</v>
       </c>
       <c r="R16">
-        <v>11.56630057696684</v>
+        <v>129.12473517133</v>
       </c>
       <c r="S16">
-        <v>0.001303243843187678</v>
+        <v>0.001471185431221572</v>
       </c>
       <c r="T16">
-        <v>0.001303243843187678</v>
+        <v>0.001471185431221572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.23092719266715</v>
+        <v>1.341011</v>
       </c>
       <c r="N17">
-        <v>1.23092719266715</v>
+        <v>4.023033</v>
       </c>
       <c r="O17">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="P17">
-        <v>0.2334260369032008</v>
+        <v>0.2337931751084314</v>
       </c>
       <c r="Q17">
-        <v>31.15558588857316</v>
+        <v>34.05648074735667</v>
       </c>
       <c r="R17">
-        <v>31.15558588857316</v>
+        <v>306.5083267262099</v>
       </c>
       <c r="S17">
-        <v>0.003510485069966574</v>
+        <v>0.003492209174558084</v>
       </c>
       <c r="T17">
-        <v>0.003510485069966574</v>
+        <v>0.003492209174558085</v>
       </c>
     </row>
   </sheetData>
